--- a/LubanConfig/Datas/ItemConfig.xlsx
+++ b/LubanConfig/Datas/ItemConfig.xlsx
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="6">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" t="s">
@@ -1492,9 +1492,6 @@
     <row r="11" spans="2:12">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="J11" s="8"/>
@@ -1504,9 +1501,6 @@
     <row r="12" spans="2:12">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="J12" s="8"/>
@@ -1516,9 +1510,6 @@
     <row r="13" spans="2:12">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="J13" s="8"/>
@@ -1528,137 +1519,86 @@
     <row r="14" spans="2:7">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
       <c r="G30" s="7"/>
     </row>
   </sheetData>
